--- a/Data/EC/NIT-8605146045.xlsx
+++ b/Data/EC/NIT-8605146045.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0586DB08-EBFC-498C-B53C-638B37F885C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5F51FDB-F3EA-4793-B1EC-228B0A46F576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D7FC5D49-0A12-4D3B-B2CD-125319C444A2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{07D8DA86-4B10-4ACA-948E-6338C873E110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,43 +65,43 @@
     <t>CC</t>
   </si>
   <si>
+    <t>9144662</t>
+  </si>
+  <si>
+    <t>DIOMEDES DE JESUS TORRES HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>9023326</t>
+  </si>
+  <si>
+    <t>ALBEIRO JOSE COMAS MARTINEZ</t>
+  </si>
+  <si>
     <t>1096193978</t>
   </si>
   <si>
     <t>JOHAN ARLEY GARCIA ESPARZA</t>
   </si>
   <si>
-    <t>1811</t>
-  </si>
-  <si>
     <t>8867001</t>
   </si>
   <si>
     <t>ALFONSO LUIS GALARCIO FURNIELES</t>
-  </si>
-  <si>
-    <t>9144662</t>
-  </si>
-  <si>
-    <t>DIOMEDES DE JESUS TORRES HERNANDEZ</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>9023326</t>
-  </si>
-  <si>
-    <t>ALBEIRO JOSE COMAS MARTINEZ</t>
-  </si>
-  <si>
-    <t>1903</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -515,7 +515,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB3D8179-8F80-8AEB-E9B1-FE5ACB1BE373}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E455F9A4-1D64-5695-BB7E-154ECF1744ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,7 +866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0F3D4F-B6D8-4058-BC38-C44CB5EBBF8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC66054-3085-48D8-BB5C-1FC5DDE790C2}">
   <dimension ref="B2:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1044,10 +1044,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>85085</v>
+        <v>74453</v>
       </c>
       <c r="G16" s="18">
-        <v>2127120</v>
+        <v>2233590</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1058,19 +1058,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>81031</v>
+        <v>89344</v>
       </c>
       <c r="G17" s="18">
-        <v>2025780</v>
+        <v>2233590</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1081,13 +1081,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>89344</v>
@@ -1104,13 +1104,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>89344</v>
@@ -1127,19 +1127,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>81031</v>
+        <v>89344</v>
       </c>
       <c r="G20" s="18">
-        <v>2025780</v>
+        <v>2233590</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1150,19 +1150,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>85085</v>
+        <v>67526</v>
       </c>
       <c r="G21" s="18">
-        <v>2127120</v>
+        <v>2025780</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1173,19 +1173,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F22" s="18">
-        <v>85085</v>
+        <v>81031</v>
       </c>
       <c r="G22" s="18">
-        <v>2127120</v>
+        <v>2025780</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1196,19 +1196,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>81031</v>
+        <v>70904</v>
       </c>
       <c r="G23" s="18">
-        <v>2025780</v>
+        <v>2127120</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1219,19 +1219,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F24" s="18">
-        <v>89344</v>
+        <v>85085</v>
       </c>
       <c r="G24" s="18">
-        <v>2233590</v>
+        <v>2127120</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1242,19 +1242,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F25" s="18">
-        <v>89344</v>
+        <v>85085</v>
       </c>
       <c r="G25" s="18">
-        <v>2233590</v>
+        <v>2127120</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1265,13 +1265,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F26" s="18">
         <v>85085</v>
@@ -1288,19 +1288,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F27" s="18">
-        <v>81031</v>
+        <v>85085</v>
       </c>
       <c r="G27" s="18">
-        <v>2025780</v>
+        <v>2127120</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1311,16 +1311,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
-        <v>81031</v>
+        <v>67526</v>
       </c>
       <c r="G28" s="18">
         <v>2025780</v>
@@ -1334,16 +1334,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F29" s="18">
-        <v>67526</v>
+        <v>81031</v>
       </c>
       <c r="G29" s="18">
         <v>2025780</v>
@@ -1357,19 +1357,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F30" s="18">
-        <v>74453</v>
+        <v>81031</v>
       </c>
       <c r="G30" s="18">
-        <v>2233590</v>
+        <v>2025780</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1380,16 +1380,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F31" s="18">
-        <v>67526</v>
+        <v>81031</v>
       </c>
       <c r="G31" s="18">
         <v>2025780</v>
@@ -1403,19 +1403,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F32" s="24">
-        <v>70904</v>
+        <v>81031</v>
       </c>
       <c r="G32" s="24">
-        <v>2127120</v>
+        <v>2025780</v>
       </c>
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>

--- a/Data/EC/NIT-8605146045.xlsx
+++ b/Data/EC/NIT-8605146045.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5F51FDB-F3EA-4793-B1EC-228B0A46F576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{795491C2-D222-4308-A8D1-549DF3C0107D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{07D8DA86-4B10-4ACA-948E-6338C873E110}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{488F82DF-665A-48C1-A43D-C4447E47B330}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,37 +71,37 @@
     <t>DIOMEDES DE JESUS TORRES HERNANDEZ</t>
   </si>
   <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1096193978</t>
+  </si>
+  <si>
+    <t>JOHAN ARLEY GARCIA ESPARZA</t>
+  </si>
+  <si>
+    <t>8867001</t>
+  </si>
+  <si>
+    <t>ALFONSO LUIS GALARCIO FURNIELES</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>9023326</t>
+  </si>
+  <si>
+    <t>ALBEIRO JOSE COMAS MARTINEZ</t>
+  </si>
+  <si>
     <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>9023326</t>
-  </si>
-  <si>
-    <t>ALBEIRO JOSE COMAS MARTINEZ</t>
-  </si>
-  <si>
-    <t>1096193978</t>
-  </si>
-  <si>
-    <t>JOHAN ARLEY GARCIA ESPARZA</t>
-  </si>
-  <si>
-    <t>8867001</t>
-  </si>
-  <si>
-    <t>ALFONSO LUIS GALARCIO FURNIELES</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -200,7 +200,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -213,9 +215,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -415,23 +415,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -459,10 +459,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,7 +515,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E455F9A4-1D64-5695-BB7E-154ECF1744ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4384F8-C79D-3804-1B08-94CBD470AEC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -866,7 +866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC66054-3085-48D8-BB5C-1FC5DDE790C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E32CE8-C563-42CE-B024-6F911C1058AA}">
   <dimension ref="B2:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1044,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>74453</v>
+        <v>89344</v>
       </c>
       <c r="G16" s="18">
         <v>2233590</v>
@@ -1058,19 +1058,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>89344</v>
+        <v>85085</v>
       </c>
       <c r="G17" s="18">
-        <v>2233590</v>
+        <v>2127120</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1081,19 +1081,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>89344</v>
+        <v>81031</v>
       </c>
       <c r="G18" s="18">
-        <v>2233590</v>
+        <v>2025780</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1110,7 +1110,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>89344</v>
@@ -1127,19 +1127,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>89344</v>
+        <v>85085</v>
       </c>
       <c r="G20" s="18">
-        <v>2233590</v>
+        <v>2127120</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1150,16 +1150,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F21" s="18">
-        <v>67526</v>
+        <v>81031</v>
       </c>
       <c r="G21" s="18">
         <v>2025780</v>
@@ -1173,19 +1173,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F22" s="18">
-        <v>81031</v>
+        <v>89344</v>
       </c>
       <c r="G22" s="18">
-        <v>2025780</v>
+        <v>2233590</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1196,16 +1196,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>70904</v>
+        <v>85085</v>
       </c>
       <c r="G23" s="18">
         <v>2127120</v>
@@ -1219,19 +1219,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>85085</v>
+        <v>81031</v>
       </c>
       <c r="G24" s="18">
-        <v>2127120</v>
+        <v>2025780</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1242,19 +1242,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F25" s="18">
-        <v>85085</v>
+        <v>89344</v>
       </c>
       <c r="G25" s="18">
-        <v>2127120</v>
+        <v>2233590</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1265,19 +1265,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F26" s="18">
-        <v>85085</v>
+        <v>81031</v>
       </c>
       <c r="G26" s="18">
-        <v>2127120</v>
+        <v>2025780</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1288,13 +1288,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F27" s="18">
         <v>85085</v>
@@ -1311,16 +1311,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F28" s="18">
-        <v>67526</v>
+        <v>81031</v>
       </c>
       <c r="G28" s="18">
         <v>2025780</v>
@@ -1334,19 +1334,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F29" s="18">
-        <v>81031</v>
+        <v>74453</v>
       </c>
       <c r="G29" s="18">
-        <v>2025780</v>
+        <v>2233590</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1357,16 +1357,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="E30" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F30" s="18">
-        <v>81031</v>
+        <v>67526</v>
       </c>
       <c r="G30" s="18">
         <v>2025780</v>
@@ -1380,19 +1380,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F31" s="18">
-        <v>81031</v>
+        <v>70904</v>
       </c>
       <c r="G31" s="18">
-        <v>2025780</v>
+        <v>2127120</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1403,16 +1403,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D32" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="22" t="s">
-        <v>15</v>
-      </c>
       <c r="F32" s="24">
-        <v>81031</v>
+        <v>67526</v>
       </c>
       <c r="G32" s="24">
         <v>2025780</v>
